--- a/other/outputs/tbl_S5_formatted.xlsx
+++ b/other/outputs/tbl_S5_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/UAF Semesters/Thesis/Current Draft/Chapter 1/submissions/new submission/v3_draft_TAFS_Meyer/v3_submission_format/kenai_juv_salmon_growth_analyses/other/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDB11C1-46C7-2144-B7EE-01D7A62292AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D53E569-541A-B44C-9380-B7E1C95BA325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14260" xr2:uid="{231A36D3-1E9C-834D-86A1-B658C3EA9189}"/>
+    <workbookView xWindow="10420" yWindow="1080" windowWidth="15020" windowHeight="14260" xr2:uid="{231A36D3-1E9C-834D-86A1-B658C3EA9189}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="23">
   <si>
     <t>Watershed</t>
   </si>
@@ -502,22 +502,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425492D9-9568-E446-A082-6F700CD97053}">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:G327"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309:G327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="2"/>
+    <col min="2" max="7" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -540,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -548,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -560,10 +557,10 @@
         <v>-0.2</v>
       </c>
       <c r="G2" s="4">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -571,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -583,10 +580,10 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="4">
-        <v>-3.0300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.56E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -594,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -606,10 +603,10 @@
         <v>12</v>
       </c>
       <c r="G4" s="4">
-        <v>-3.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -617,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -629,10 +626,10 @@
         <v>-0.2</v>
       </c>
       <c r="G5" s="4">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -640,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -652,10 +649,10 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="4">
-        <v>-3.1800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -663,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -675,10 +672,10 @@
         <v>12</v>
       </c>
       <c r="G7" s="4">
-        <v>-4.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -686,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -698,10 +695,10 @@
         <v>-0.2</v>
       </c>
       <c r="G8" s="4">
-        <v>-9.9099999999999994E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.1149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -709,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -721,10 +718,10 @@
         <v>0.2</v>
       </c>
       <c r="G9" s="4">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -732,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
@@ -744,13 +741,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="4">
-        <v>-8.3900000000000002E-2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -758,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -770,10 +764,10 @@
         <v>-0.2</v>
       </c>
       <c r="G11" s="4">
-        <v>-0.16969999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -781,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -793,10 +787,10 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="4">
-        <v>-0.1275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.14649999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -804,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
@@ -816,18 +810,18 @@
         <v>12</v>
       </c>
       <c r="G13" s="4">
-        <v>-0.1467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.16850000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -839,18 +833,18 @@
         <v>-0.2</v>
       </c>
       <c r="G14" s="4">
-        <v>-3.5499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
@@ -862,18 +856,18 @@
         <v>0.2</v>
       </c>
       <c r="G15" s="4">
-        <v>-2.35E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
@@ -885,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="4">
-        <v>-2.8899999999999999E-2</v>
+        <v>-4.65E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -893,10 +887,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>10</v>
@@ -908,7 +902,7 @@
         <v>-0.2</v>
       </c>
       <c r="G17" s="4">
-        <v>-3.7499999999999999E-2</v>
+        <v>-6.6400000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -916,10 +910,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
@@ -931,7 +925,7 @@
         <v>0.2</v>
       </c>
       <c r="G18" s="4">
-        <v>-2.1700000000000001E-2</v>
+        <v>-4.3400000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -939,10 +933,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
@@ -954,7 +948,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="4">
-        <v>-2.8899999999999999E-2</v>
+        <v>-5.3400000000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -962,10 +956,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
@@ -977,7 +971,7 @@
         <v>-0.2</v>
       </c>
       <c r="G20" s="4">
-        <v>-7.7499999999999999E-2</v>
+        <v>-0.1239</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -985,10 +979,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
@@ -1000,7 +994,7 @@
         <v>0.2</v>
       </c>
       <c r="G21" s="4">
-        <v>-5.2999999999999999E-2</v>
+        <v>-9.0800000000000006E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1008,10 +1002,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
@@ -1023,7 +1017,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="4">
-        <v>-6.4199999999999993E-2</v>
+        <v>-0.10539999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1031,10 +1025,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>14</v>
@@ -1046,7 +1040,7 @@
         <v>-0.2</v>
       </c>
       <c r="G23" s="4">
-        <v>-0.13139999999999999</v>
+        <v>-0.2087</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1054,10 +1048,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
@@ -1069,7 +1063,7 @@
         <v>0.2</v>
       </c>
       <c r="G24" s="4">
-        <v>-9.4799999999999995E-2</v>
+        <v>-0.1593</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1077,10 +1071,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>14</v>
@@ -1092,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="4">
-        <v>-0.1116</v>
+        <v>-0.18140000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1100,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1115,7 +1109,7 @@
         <v>-0.2</v>
       </c>
       <c r="G26" s="4">
-        <v>-3.8199999999999998E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1123,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -1138,7 +1132,7 @@
         <v>0.2</v>
       </c>
       <c r="G27" s="4">
-        <v>-2.5999999999999999E-2</v>
+        <v>-3.0300000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1146,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1161,7 +1155,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="4">
-        <v>-3.1600000000000003E-2</v>
+        <v>-3.6600000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1169,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1184,7 +1178,7 @@
         <v>-0.2</v>
       </c>
       <c r="G29" s="4">
-        <v>-4.24E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1192,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1207,7 +1201,7 @@
         <v>0.2</v>
       </c>
       <c r="G30" s="4">
-        <v>-2.6200000000000001E-2</v>
+        <v>-3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1215,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1230,7 +1224,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="4">
-        <v>-3.3700000000000001E-2</v>
+        <v>-4.0500000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1238,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1253,7 +1247,7 @@
         <v>-0.2</v>
       </c>
       <c r="G32" s="4">
-        <v>-8.5900000000000004E-2</v>
+        <v>-9.9099999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1261,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1276,7 +1270,7 @@
         <v>0.2</v>
       </c>
       <c r="G33" s="4">
-        <v>-6.08E-2</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1284,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1299,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="4">
-        <v>-7.2300000000000003E-2</v>
+        <v>-8.3900000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1307,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1322,7 +1316,7 @@
         <v>-0.2</v>
       </c>
       <c r="G35" s="4">
-        <v>-0.15079999999999999</v>
+        <v>-0.16969999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1330,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1345,53 +1339,10 @@
         <v>0.2</v>
       </c>
       <c r="G36" s="4">
-        <v>-0.1129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="4">
-        <v>-0.13039999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G44" s="4"/>
-    </row>
+        <v>-0.1275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:7" ht="39" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>0</v>
@@ -1417,33 +1368,33 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="3">
-        <v>-0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G46" s="4">
-        <v>-3.3399999999999999E-2</v>
+        <v>-0.1467</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
@@ -1455,18 +1406,18 @@
         <v>11</v>
       </c>
       <c r="F47" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G47" s="4">
-        <v>-1.6299999999999999E-2</v>
+        <v>-4.1500000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>18</v>
@@ -1477,19 +1428,19 @@
       <c r="E48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>12</v>
+      <c r="F48" s="3">
+        <v>0.2</v>
       </c>
       <c r="G48" s="4">
-        <v>-2.4E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-2.76E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
@@ -1498,21 +1449,21 @@
         <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="3">
-        <v>-0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G49" s="4">
-        <v>-3.5200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-3.39E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
@@ -1524,21 +1475,18 @@
         <v>13</v>
       </c>
       <c r="F50" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G50" s="4">
-        <v>-1.3599999999999999E-2</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-4.41E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
@@ -1549,42 +1497,42 @@
       <c r="E51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>12</v>
+      <c r="F51" s="3">
+        <v>0.2</v>
       </c>
       <c r="G51" s="4">
-        <v>-2.3300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="3">
-        <v>-0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G52" s="4">
-        <v>-7.5899999999999995E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-3.4099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
@@ -1596,18 +1544,18 @@
         <v>11</v>
       </c>
       <c r="F53" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G53" s="4">
-        <v>-4.2099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-9.0300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
@@ -1618,19 +1566,19 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>12</v>
+      <c r="F54" s="3">
+        <v>0.2</v>
       </c>
       <c r="G54" s="4">
-        <v>-5.7099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-6.1699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>18</v>
@@ -1639,21 +1587,21 @@
         <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="3">
-        <v>-0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G55" s="4">
-        <v>-0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-7.4800000000000005E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
@@ -1665,18 +1613,18 @@
         <v>13</v>
       </c>
       <c r="F56" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G56" s="4">
-        <v>-9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.1522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
@@ -1687,42 +1635,42 @@
       <c r="E57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>12</v>
+      <c r="F57" s="3">
+        <v>0.2</v>
       </c>
       <c r="G57" s="4">
-        <v>-0.1147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.1094</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3">
-        <v>-0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G58" s="4">
-        <v>-1.44E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.12889999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -1734,18 +1682,18 @@
         <v>11</v>
       </c>
       <c r="F59" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G59" s="4">
-        <v>-8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -1756,19 +1704,19 @@
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>12</v>
+      <c r="F60" s="3">
+        <v>0.2</v>
       </c>
       <c r="G60" s="4">
-        <v>-1.15E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-2.35E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -1777,21 +1725,21 @@
         <v>10</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="3">
-        <v>-0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G61" s="4">
-        <v>-1.55E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-2.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -1803,18 +1751,18 @@
         <v>13</v>
       </c>
       <c r="F62" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G62" s="4">
-        <v>-9.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -1825,42 +1773,42 @@
       <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>12</v>
+      <c r="F63" s="3">
+        <v>0.2</v>
       </c>
       <c r="G63" s="4">
-        <v>-1.21E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="3">
-        <v>-0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G64" s="4">
-        <v>-3.15E-2</v>
+        <v>-2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -1872,18 +1820,18 @@
         <v>11</v>
       </c>
       <c r="F65" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G65" s="4">
-        <v>-2.0299999999999999E-2</v>
+        <v>-7.7499999999999999E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -1894,19 +1842,19 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>12</v>
+      <c r="F66" s="3">
+        <v>0.2</v>
       </c>
       <c r="G66" s="4">
-        <v>-2.5399999999999999E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -1915,21 +1863,21 @@
         <v>14</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="3">
-        <v>-0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G67" s="4">
-        <v>-5.3699999999999998E-2</v>
+        <v>-6.4199999999999993E-2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -1941,18 +1889,18 @@
         <v>13</v>
       </c>
       <c r="F68" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G68" s="4">
-        <v>-3.5799999999999998E-2</v>
+        <v>-0.13139999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -1963,16 +1911,16 @@
       <c r="E69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>12</v>
+      <c r="F69" s="3">
+        <v>0.2</v>
       </c>
       <c r="G69" s="4">
-        <v>-4.3999999999999997E-2</v>
+        <v>-9.4799999999999995E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>15</v>
@@ -1981,27 +1929,27 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="3">
-        <v>-0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G70" s="4">
-        <v>-8.5000000000000006E-3</v>
+        <v>-0.1116</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
@@ -2010,21 +1958,21 @@
         <v>11</v>
       </c>
       <c r="F71" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G71" s="4">
-        <v>-5.5999999999999999E-3</v>
+        <v>-4.4499999999999998E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>10</v>
@@ -2032,45 +1980,45 @@
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>12</v>
+      <c r="F72" s="3">
+        <v>0.2</v>
       </c>
       <c r="G72" s="4">
-        <v>-7.0000000000000001E-3</v>
+        <v>-3.0800000000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="3">
-        <v>-0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G73" s="4">
-        <v>-9.1000000000000004E-3</v>
+        <v>-3.6900000000000002E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>10</v>
@@ -2079,21 +2027,21 @@
         <v>13</v>
       </c>
       <c r="F74" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G74" s="4">
-        <v>-5.8999999999999999E-3</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>10</v>
@@ -2101,45 +2049,45 @@
       <c r="E75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>12</v>
+      <c r="F75" s="3">
+        <v>0.2</v>
       </c>
       <c r="G75" s="4">
-        <v>-7.4000000000000003E-3</v>
+        <v>-3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G76" s="4">
-        <v>-1.9099999999999999E-2</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>14</v>
@@ -2148,21 +2096,21 @@
         <v>11</v>
       </c>
       <c r="F77" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G77" s="4">
-        <v>-1.2699999999999999E-2</v>
+        <v>-9.8799999999999999E-2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>14</v>
@@ -2170,45 +2118,45 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>12</v>
+      <c r="F78" s="3">
+        <v>0.2</v>
       </c>
       <c r="G78" s="4">
-        <v>-1.5599999999999999E-2</v>
+        <v>-7.0900000000000005E-2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="3">
-        <v>-0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G79" s="4">
-        <v>-3.1099999999999999E-2</v>
+        <v>-8.3599999999999994E-2</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>14</v>
@@ -2217,21 +2165,21 @@
         <v>13</v>
       </c>
       <c r="F80" s="3">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G80" s="4">
-        <v>-2.1100000000000001E-2</v>
+        <v>-0.17199999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>14</v>
@@ -2239,11 +2187,11 @@
       <c r="E81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>12</v>
+      <c r="F81" s="3">
+        <v>0.2</v>
       </c>
       <c r="G81" s="4">
-        <v>-2.5700000000000001E-2</v>
+        <v>-0.12970000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2272,36 +2220,36 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G90" s="4">
-        <v>1.0699999999999999E-2</v>
+        <v>-0.14899999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>10</v>
@@ -2309,68 +2257,68 @@
       <c r="E91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>12</v>
+      <c r="F91" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G91" s="4">
-        <v>6.3E-3</v>
+        <v>-3.8199999999999998E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F92" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G92" s="4">
-        <v>3.2000000000000002E-3</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G93" s="4">
-        <v>1.5800000000000002E-2</v>
+        <v>-3.1600000000000003E-2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>10</v>
@@ -2378,68 +2326,68 @@
       <c r="E94" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>12</v>
+      <c r="F94" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G94" s="4">
-        <v>1.03E-2</v>
+        <v>-4.24E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F95" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G95" s="4">
-        <v>-2.3E-3</v>
+        <v>-2.6200000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G96" s="4">
-        <v>1.84E-2</v>
+        <v>-3.3700000000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>14</v>
@@ -2447,68 +2395,68 @@
       <c r="E97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>12</v>
+      <c r="F97" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G97" s="4">
-        <v>9.4000000000000004E-3</v>
+        <v>-8.5900000000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F98" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G98" s="4">
-        <v>-1.41E-2</v>
+        <v>-6.08E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G99" s="4">
-        <v>1.8599999999999998E-2</v>
+        <v>-7.2300000000000003E-2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>14</v>
@@ -2516,68 +2464,68 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>12</v>
+      <c r="F100" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G100" s="4">
-        <v>4.1999999999999997E-3</v>
+        <v>-0.15079999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F101" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G101" s="4">
-        <v>-4.4000000000000003E-3</v>
+        <v>-0.1129</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G102" s="4">
-        <v>5.4999999999999997E-3</v>
+        <v>-0.13039999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>10</v>
@@ -2585,68 +2533,68 @@
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>12</v>
+      <c r="F103" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G103" s="4">
-        <v>1E-3</v>
+        <v>-3.3399999999999999E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F104" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G104" s="4">
-        <v>-3.0999999999999999E-3</v>
+        <v>-1.6299999999999999E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G105" s="4">
-        <v>9.1000000000000004E-3</v>
+        <v>-2.4E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>10</v>
@@ -2654,68 +2602,68 @@
       <c r="E106" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>12</v>
+      <c r="F106" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G106" s="4">
-        <v>3.5999999999999999E-3</v>
+        <v>-3.5200000000000002E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F107" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G107" s="4">
-        <v>-1.1599999999999999E-2</v>
+        <v>-1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G108" s="4">
-        <v>8.3000000000000001E-3</v>
+        <v>-2.3300000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>14</v>
@@ -2723,68 +2671,68 @@
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>12</v>
+      <c r="F109" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G109" s="4">
-        <v>-6.9999999999999999E-4</v>
+        <v>-7.5899999999999995E-2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F110" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G110" s="4">
-        <v>-2.7799999999999998E-2</v>
+        <v>-4.2099999999999999E-2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G111" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>-5.7099999999999998E-2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>14</v>
@@ -2792,65 +2740,65 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>12</v>
+      <c r="F112" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G112" s="4">
-        <v>-1.06E-2</v>
+        <v>-0.14299999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F113" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G113" s="4">
-        <v>-7.3200000000000001E-2</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G114" s="4">
-        <v>-5.7599999999999998E-2</v>
+        <v>-0.1147</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>21</v>
@@ -2861,19 +2809,19 @@
       <c r="E115" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>12</v>
+      <c r="F115" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G115" s="4">
-        <v>-6.4500000000000002E-2</v>
+        <v>-3.6600000000000001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>21</v>
@@ -2882,21 +2830,21 @@
         <v>10</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F116" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G116" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>-1.9800000000000002E-2</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>21</v>
@@ -2905,21 +2853,21 @@
         <v>10</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G117" s="4">
-        <v>-6.1400000000000003E-2</v>
+        <v>-2.7300000000000001E-2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>21</v>
@@ -2930,65 +2878,65 @@
       <c r="E118" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>12</v>
+      <c r="F118" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G118" s="4">
-        <v>-6.9000000000000006E-2</v>
+        <v>-3.9800000000000002E-2</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F119" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G119" s="4">
-        <v>-0.1457</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G120" s="4">
-        <v>-0.1169</v>
+        <v>-2.76E-2</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>21</v>
@@ -2999,19 +2947,19 @@
       <c r="E121" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>12</v>
+      <c r="F121" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G121" s="4">
-        <v>-0.12970000000000001</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>21</v>
@@ -3020,21 +2968,21 @@
         <v>14</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F122" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G122" s="4">
-        <v>-0.22819999999999999</v>
+        <v>-4.9200000000000001E-2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>21</v>
@@ -3043,21 +2991,21 @@
         <v>14</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G123" s="4">
-        <v>-0.18640000000000001</v>
+        <v>-6.4299999999999996E-2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>21</v>
@@ -3068,38 +3016,48 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>12</v>
+      <c r="F124" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G124" s="4">
-        <v>-0.20499999999999999</v>
+        <v>-0.15459999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F125" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G125" s="4">
-        <v>-5.8700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:8" ht="39" x14ac:dyDescent="0.2">
+        <v>-0.1026</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E131" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:7" ht="39" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>0</v>
       </c>
@@ -3122,38 +3080,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G134" s="4">
-        <v>-4.7E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.1258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>10</v>
@@ -3161,68 +3119,68 @@
       <c r="E135" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>12</v>
+      <c r="F135" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G135" s="4">
-        <v>-5.2299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F136" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G136" s="4">
-        <v>-6.2899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G137" s="4">
-        <v>-4.9599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>10</v>
@@ -3230,71 +3188,68 @@
       <c r="E138" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>12</v>
+      <c r="F138" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G138" s="4">
-        <v>-5.5599999999999997E-2</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F139" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G139" s="4">
-        <v>-0.1182</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G140" s="4">
-        <v>-9.5899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>14</v>
@@ -3302,68 +3257,68 @@
       <c r="E141" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>12</v>
+      <c r="F141" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G141" s="4">
-        <v>-0.106</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F142" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G142" s="4">
-        <v>-0.18720000000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.41E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G143" s="4">
-        <v>-0.15479999999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>14</v>
@@ -3371,65 +3326,65 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>12</v>
+      <c r="F144" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G144" s="4">
-        <v>-0.1694</v>
+        <v>-1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F145" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G145" s="4">
-        <v>-4.9500000000000002E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G146" s="4">
-        <v>-3.61E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>21</v>
@@ -3440,19 +3395,19 @@
       <c r="E147" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>12</v>
+      <c r="F147" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G147" s="4">
-        <v>-4.1799999999999997E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>21</v>
@@ -3461,21 +3416,21 @@
         <v>10</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F148" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G148" s="4">
-        <v>-5.45E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>21</v>
@@ -3484,21 +3439,21 @@
         <v>10</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G149" s="4">
-        <v>-3.8600000000000002E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>21</v>
@@ -3509,65 +3464,65 @@
       <c r="E150" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>12</v>
+      <c r="F150" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G150" s="4">
-        <v>-4.58E-2</v>
+        <v>1.29E-2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F151" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G151" s="4">
-        <v>-0.1081</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G152" s="4">
-        <v>-8.0600000000000005E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>21</v>
@@ -3578,19 +3533,19 @@
       <c r="E153" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>12</v>
+      <c r="F153" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G153" s="4">
-        <v>-9.2499999999999999E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>21</v>
@@ -3599,21 +3554,21 @@
         <v>14</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F154" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G154" s="4">
-        <v>-0.1832</v>
+        <v>4.7899999999999998E-2</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>21</v>
@@ -3622,21 +3577,21 @@
         <v>14</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G155" s="4">
-        <v>-0.1409</v>
+        <v>2.92E-2</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>21</v>
@@ -3647,68 +3602,68 @@
       <c r="E156" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>12</v>
+      <c r="F156" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G156" s="4">
-        <v>-0.1595</v>
+        <v>-1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F157" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G157" s="4">
-        <v>-3.8899999999999997E-2</v>
+        <v>5.11E-2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G158" s="4">
-        <v>-2.8299999999999999E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>10</v>
@@ -3716,68 +3671,68 @@
       <c r="E159" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>12</v>
+      <c r="F159" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G159" s="4">
-        <v>-3.3000000000000002E-2</v>
+        <v>-1.35E-2</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F160" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G160" s="4">
-        <v>-4.2599999999999999E-2</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" s="3">
-        <v>0.2</v>
+        <v>11</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G161" s="4">
-        <v>-2.9499999999999998E-2</v>
+        <v>-1.04E-2</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>10</v>
@@ -3785,68 +3740,68 @@
       <c r="E162" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>12</v>
+      <c r="F162" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G162" s="4">
-        <v>-3.5400000000000001E-2</v>
+        <v>-1.4500000000000001E-2</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F163" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G163" s="4">
-        <v>-8.5900000000000004E-2</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="3">
-        <v>0.2</v>
+        <v>13</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G164" s="4">
-        <v>-6.3700000000000007E-2</v>
+        <v>-1.09E-2</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>14</v>
@@ -3854,85 +3809,2987 @@
       <c r="E165" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>12</v>
+      <c r="F165" s="3">
+        <v>-0.2</v>
       </c>
       <c r="G165" s="4">
-        <v>-7.3700000000000002E-2</v>
+        <v>-2.9899999999999999E-2</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F166" s="3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G166" s="4">
-        <v>-0.1477</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="4">
+        <v>-2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="A177" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G178" s="4">
+        <v>-5.11E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G179" s="4">
+        <v>-3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="4">
+        <v>-4.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G181" s="4">
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G182" s="4">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="4">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G184" s="4">
+        <v>-1.89E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G185" s="4">
+        <v>-1.26E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="4">
+        <v>-1.54E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G187" s="4">
+        <v>-3.7900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G188" s="4">
+        <v>-2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" s="4">
+        <v>-3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G190" s="4">
+        <v>-6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G191" s="4">
+        <v>-4.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="4">
+        <v>-5.3800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G193" s="4">
+        <v>-1.44E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G194" s="4">
+        <v>-8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="4">
+        <v>-1.15E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G196" s="4">
+        <v>-1.55E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G197" s="4">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="4">
+        <v>-1.21E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G199" s="4">
+        <v>-3.15E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G200" s="4">
+        <v>-2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" s="4">
+        <v>-2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G202" s="4">
+        <v>-5.3699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G203" s="4">
+        <v>-3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="4">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G205" s="4">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G206" s="4">
+        <v>-5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="4">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G208" s="4">
+        <v>-9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G209" s="4">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="4">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G211" s="4">
+        <v>-1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G212" s="4">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="A221" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G222" s="4">
+        <v>-1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G223" s="4">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G224" s="4">
+        <v>-2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" s="4">
+        <v>-2.5700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F226" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G226" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F227" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G227" s="4">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" s="4">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G229" s="4">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G230" s="4">
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="4">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F232" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G232" s="4">
+        <v>-2.3E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F233" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G233" s="4">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G234" s="4">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G235" s="4">
+        <v>-1.41E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F236" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G236" s="4">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G237" s="4">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F238" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G238" s="4">
+        <v>-1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G239" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G240" s="4">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G241" s="4">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G242" s="4">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G243" s="4">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F244" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G244" s="4">
+        <v>-2.41E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F245" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G245" s="4">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G246" s="4">
+        <v>-1.23E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G247" s="4">
+        <v>-4.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G248" s="4">
+        <v>-1.44E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G249" s="4">
+        <v>-2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F250" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G250" s="4">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F251" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G251" s="4">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G253" s="4">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G254" s="4">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G255" s="4">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G256" s="4">
+        <v>-1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="A265" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F266" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G266" s="4">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G267" s="4">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F268" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G268" s="4">
+        <v>-2.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G269" s="4">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G270" s="4">
+        <v>-1.06E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F271" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G271" s="4">
+        <v>-7.3200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F272" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G272" s="4">
+        <v>-5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273" s="4">
+        <v>-6.4500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G274" s="4">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G275" s="4">
+        <v>-6.1400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G276" s="4">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F277" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G277" s="4">
+        <v>-0.1457</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F278" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G278" s="4">
+        <v>-0.1169</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G279" s="4">
+        <v>-0.12970000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F280" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G280" s="4">
+        <v>-0.22819999999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F281" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G281" s="4">
+        <v>-0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G282" s="4">
+        <v>-0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F283" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G283" s="4">
+        <v>-5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G284" s="4">
+        <v>-4.7E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G285" s="4">
+        <v>-5.2299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G286" s="4">
+        <v>-6.2899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G287" s="4">
+        <v>-4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288" s="4">
+        <v>-5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F289" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G289" s="4">
+        <v>-0.1182</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F290" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G290" s="4">
+        <v>-9.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G291" s="4">
+        <v>-0.106</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F292" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G292" s="4">
+        <v>-0.18720000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G293" s="4">
+        <v>-0.15479999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G294" s="4">
+        <v>-0.1694</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G167" s="4">
+      <c r="C295" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F295" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G295" s="4">
+        <v>-4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G296" s="4">
+        <v>-3.61E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G297" s="4">
+        <v>-4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F298" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G298" s="4">
+        <v>-5.45E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F299" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G299" s="4">
+        <v>-3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G300" s="4">
+        <v>-4.58E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D304" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="A309" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G309" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F310" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G310" s="4">
+        <v>-0.1081</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F311" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G311" s="4">
+        <v>-8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" s="4">
+        <v>-9.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F313" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G313" s="4">
+        <v>-0.1832</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F314" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G314" s="4">
+        <v>-0.1409</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G315" s="4">
+        <v>-0.1595</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F316" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G316" s="4">
+        <v>-3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F317" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G317" s="4">
+        <v>-2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G318" s="4">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F319" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G319" s="4">
+        <v>-4.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F320" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G320" s="4">
+        <v>-2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" s="4">
+        <v>-3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F322" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G322" s="4">
+        <v>-8.5900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F323" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G323" s="4">
+        <v>-6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G324" s="4">
+        <v>-7.3700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F325" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G325" s="4">
+        <v>-0.1477</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G326" s="4">
         <v>-0.1132</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B168" s="2" t="s">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="4">
+      <c r="C327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G327" s="4">
         <v>-0.12870000000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
